--- a/src/main/webapp/matriz_ia.xlsx
+++ b/src/main/webapp/matriz_ia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="528" windowWidth="22692" windowHeight="11448"/>
+    <workbookView xWindow="636" yWindow="528" windowWidth="22692" windowHeight="11448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliador" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>real</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Tetraploid</t>
+  </si>
+  <si>
+    <t>arvore</t>
+  </si>
+  <si>
+    <t>Árvore de Decisão</t>
+  </si>
+  <si>
+    <t>Avaliação da Árvore</t>
   </si>
 </sst>
 </file>
@@ -318,76 +327,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,7 +408,15 @@
     <cellStyle name="Result" xfId="4"/>
     <cellStyle name="Result2" xfId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -509,8 +526,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -530,15 +547,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:C147" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:D147" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A1:D147">
+    <filterColumn colId="3"/>
+  </autoFilter>
   <sortState ref="A6:C49">
     <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="real" dataDxfId="2"/>
-    <tableColumn id="2" name="knn" dataDxfId="1"/>
-    <tableColumn id="3" name="vizinho" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="real" dataDxfId="3"/>
+    <tableColumn id="2" name="knn" dataDxfId="2"/>
+    <tableColumn id="3" name="vizinho" dataDxfId="1"/>
+    <tableColumn id="4" name="arvore" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A147"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -840,9 +860,10 @@
     <col min="1" max="1" width="15.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,736 +873,885 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="9"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="9"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="9"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="9"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="9"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="9"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="9"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="9"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="9"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="9"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="9"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="9"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="9"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="9"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="9"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="9"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="9"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="9"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-    </row>
-    <row r="66" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="9"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="9"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="9"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="9"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="9"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="9"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="9"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="9"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="9"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="9"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="9"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="9"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="9"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="9"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="9"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="9"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="9"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="9"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="9"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="9"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="9"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="9"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="9"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="9"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="9"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="9"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="9"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="9"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="9"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="9"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="9"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="9"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="9"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="9"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="9"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="9"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="9"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="9"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="9"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="9"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="9"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="9"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="9"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-    </row>
-    <row r="110" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="9"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-    </row>
-    <row r="111" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D110" s="8"/>
+    </row>
+    <row r="111" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="9"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-    </row>
-    <row r="112" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="9"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="9"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D113" s="8"/>
+    </row>
+    <row r="114" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="9"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D114" s="8"/>
+    </row>
+    <row r="115" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="9"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D115" s="8"/>
+    </row>
+    <row r="116" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="9"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-    </row>
-    <row r="117" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D116" s="8"/>
+    </row>
+    <row r="117" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="9"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-    </row>
-    <row r="118" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D117" s="8"/>
+    </row>
+    <row r="118" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="9"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="9"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D119" s="8"/>
+    </row>
+    <row r="120" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-    </row>
-    <row r="121" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A121" s="9"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D121" s="8"/>
+    </row>
+    <row r="122" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A122" s="9"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D122" s="8"/>
+    </row>
+    <row r="123" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D123" s="8"/>
+    </row>
+    <row r="124" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A124" s="9"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-    </row>
-    <row r="125" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D124" s="8"/>
+    </row>
+    <row r="125" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D125" s="8"/>
+    </row>
+    <row r="126" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A126" s="9"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-    </row>
-    <row r="127" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D126" s="8"/>
+    </row>
+    <row r="127" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D127" s="8"/>
+    </row>
+    <row r="128" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A128" s="9"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-    </row>
-    <row r="129" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A129" s="9"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D129" s="8"/>
+    </row>
+    <row r="130" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A130" s="9"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-    </row>
-    <row r="131" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A131" s="9"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A132" s="9"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-    </row>
-    <row r="133" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A133" s="9"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D133" s="8"/>
+    </row>
+    <row r="134" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A134" s="9"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-    </row>
-    <row r="135" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D134" s="8"/>
+    </row>
+    <row r="135" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A135" s="9"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
-    </row>
-    <row r="136" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D135" s="8"/>
+    </row>
+    <row r="136" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A136" s="9"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-    </row>
-    <row r="137" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A137" s="9"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-    </row>
-    <row r="138" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D137" s="8"/>
+    </row>
+    <row r="138" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A138" s="9"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-    </row>
-    <row r="139" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A139" s="9"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-    </row>
-    <row r="140" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D139" s="8"/>
+    </row>
+    <row r="140" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A140" s="9"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-    </row>
-    <row r="141" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D140" s="8"/>
+    </row>
+    <row r="141" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A141" s="9"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-    </row>
-    <row r="142" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D141" s="8"/>
+    </row>
+    <row r="142" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A142" s="9"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-    </row>
-    <row r="143" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D142" s="8"/>
+    </row>
+    <row r="143" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A143" s="9"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
-    </row>
-    <row r="144" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D143" s="8"/>
+    </row>
+    <row r="144" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A144" s="9"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A145" s="9"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D145" s="8"/>
+    </row>
+    <row r="146" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A146" s="9"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
-    </row>
-    <row r="147" spans="1:3" ht="17.100000000000001" customHeight="1">
+      <c r="D146" s="8"/>
+    </row>
+    <row r="147" spans="1:4" ht="17.100000000000001" customHeight="1">
       <c r="A147" s="9"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -1597,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:M14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -1613,27 +1783,41 @@
     <col min="9" max="9" width="11.59765625" customWidth="1"/>
     <col min="10" max="10" width="10.69921875" customWidth="1"/>
     <col min="11" max="13" width="10.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.59765625" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="17" max="17" width="10.796875" customWidth="1"/>
+    <col min="18" max="18" width="12.8984375" customWidth="1"/>
+    <col min="19" max="19" width="12.296875" customWidth="1"/>
+    <col min="20" max="20" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
@@ -1662,9 +1846,23 @@
       <c r="M2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1677,7 +1875,7 @@
         <f>SUM(C3:E3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1690,9 +1888,22 @@
         <f>SUM(J3:L3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="20"/>
+      <c r="O3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5">
+        <f>SUM(Q3:S3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1914,7 @@
         <f>SUM(C4:E4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1714,9 +1925,20 @@
         <f t="shared" ref="M4:M5" si="0">SUM(J4:L4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="20"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4:T5" si="1">SUM(Q4:S4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1724,10 +1946,10 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <f t="shared" ref="F5" si="1">SUM(C5:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
+        <f t="shared" ref="F5" si="2">SUM(C5:E5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1738,9 +1960,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="20"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="26"/>
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1749,18 +1982,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:E6" si="2">SUM(D3:D5)</f>
+        <f t="shared" ref="D6:E6" si="3">SUM(D3:D5)</f>
         <v>0</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" s="6">
         <f>SUM(F3:F5)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1769,19 +2002,39 @@
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6" si="3">SUM(K3:K5)</f>
+        <f t="shared" ref="K6" si="4">SUM(K3:K5)</f>
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6" si="4">SUM(L3:L5)</f>
+        <f t="shared" ref="L6" si="5">SUM(L3:L5)</f>
         <v>0</v>
       </c>
       <c r="M6" s="6">
         <f>SUM(M3:M5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="O6" s="26"/>
+      <c r="P6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>SUM(Q3:Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6:S6" si="6">SUM(R3:R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <f>SUM(T3:T5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1794,127 +2047,187 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="e">
-        <f>C3/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="H9" s="16" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34">
+        <f>IF(C6=0,0,C3/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28" t="e">
-        <f>J3/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="29"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34">
+        <f>IF(J6=0,0,J3/J6)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="35"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="26" t="s">
+      <c r="O9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34">
+        <f>IF(Q6=0,0,Q3/Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="35"/>
+    </row>
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="e">
-        <f>D4/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="26" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34">
+        <f>IF(D6=0,0,D4/D6)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28" t="e">
-        <f>K4/K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="26" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="34">
+        <f>IF(K6=0,0,K4/K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="35"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34">
+        <f>IF(R6=0,0,R4/R6)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="35"/>
+    </row>
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="e">
-        <f>E5/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="26" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="34">
+        <f>IF(E6=0,0,E5/E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28" t="e">
-        <f>L5/L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="26" t="s">
+      <c r="K11" s="33"/>
+      <c r="L11" s="34">
+        <f>IF(L6=0,0,L5/L6)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34">
+        <f>IF(S6=0,0,S5/S6)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="35"/>
+    </row>
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="e">
+      <c r="D12" s="33"/>
+      <c r="E12" s="34">
         <f>SUM(E9:E11)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28" t="e">
+      <c r="K12" s="33"/>
+      <c r="L12" s="34">
         <f>SUM(L9:L11)/3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34">
+        <f>SUM(S9:S11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="35"/>
+    </row>
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1924,108 +2237,159 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="O13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21" t="e">
-        <f>C3/F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="22">
+        <f>IF(F3=0,0,C3/F3)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="H14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="21" t="s">
+      <c r="I14" s="37"/>
+      <c r="J14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21" t="e">
-        <f>J3/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="21" t="s">
+      <c r="K14" s="23"/>
+      <c r="L14" s="22">
+        <f>IF(M3=0,0,J3/M3)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="O14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="23"/>
+      <c r="S14" s="22">
+        <f>IF(T3=0,0,Q3/T3)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="e">
-        <f>D4/F4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="22">
+        <f>IF(F4=0,0,D4/F4)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21" t="e">
-        <f>K4/M4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="22">
+        <f>IF(M4=0,0,K4/M4)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="23"/>
+      <c r="S15" s="22">
+        <f>IF(T4=0,0,R4/T4)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21" t="e">
-        <f>E5/F5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="21" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="22">
+        <f>IF(F5=0,0,E5/F5)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21" t="e">
-        <f>L5/M5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="36" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="22">
+        <f>IF(M5=0,0,L5/M5)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="23"/>
+      <c r="S16" s="22">
+        <f>IF(T5=0,0,S5/T5)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="21" t="e">
+      <c r="D17" s="25"/>
+      <c r="E17" s="22">
         <f>AVERAGE(E14:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="21" t="e">
+      <c r="K17" s="25"/>
+      <c r="L17" s="22">
         <f>AVERAGE(L14:L16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="22"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="25"/>
+      <c r="S17" s="22">
+        <f>AVERAGE(S14:S16)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2035,68 +2399,96 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="30" t="s">
+      <c r="O18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+    </row>
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32" t="e">
-        <f>SUM(C3,D4,E5)/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="30" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
+        <f>IF(F6=0,0,SUM(C3,D4,E5)/F6)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32" t="e">
-        <f>SUM(J3,K4,L5)/M6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="33"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="14" t="s">
+      <c r="K19" s="17"/>
+      <c r="L19" s="18">
+        <f>IF(M6=0,0,SUM(J3,K4,L5)/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18">
+        <f>IF(T6=0,0,SUM(Q3,R4,S5)/T6)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
-        <f>SUM(D3,E3,E4,D5,C5,C4)/50</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="14" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="21">
+        <f>IF(F6=0,0,SUM(D3,E3,E4,D5,C5,C4)/F6)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15">
-        <f>SUM(K3,L3,L4,K5,J5,J4)/50</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
+      <c r="K20" s="20"/>
+      <c r="L20" s="21">
+        <f>IF(M6=0,0,SUM(K3,L3,L4,K5,J5,J4)/M6)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21">
+        <f>IF(T6=0,0,SUM(R3,S3,S4,R5,Q5,Q4)/T6)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="F21" s="10"/>
       <c r="H21" s="10"/>
       <c r="M21" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="78">
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
@@ -2116,6 +2508,10 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A3:A6"/>
@@ -2132,17 +2528,38 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="H9:I12"/>
     <mergeCell ref="H14:I17"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="H19:I20"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="O9:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="O14:P17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
